--- a/daily.xlsx
+++ b/daily.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Internship Vounne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4D44E0-D2A1-41DF-AB27-978BC9F51D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE73D4-F7D1-4035-BEFA-1BB375B72002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1020" windowWidth="14400" windowHeight="8750" xr2:uid="{B02A15E2-150F-4AE7-86FB-62DED4269725}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>Date</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>3 hours 52 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 31 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 38 minutes</t>
   </si>
 </sst>
 </file>
@@ -511,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC979-6E93-4738-ACD0-B862A1B21694}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,7 +765,7 @@
       <c r="D23" s="1">
         <v>0.54305555555555551</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" t="s">
         <v>33</v>
       </c>
     </row>
@@ -805,7 +811,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G28" t="s">
+      <c r="G28" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -818,6 +824,41 @@
       </c>
       <c r="D29" s="1">
         <v>0.52500000000000002</v>
+      </c>
+      <c r="G29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C30" s="1">
+        <v>0.5395833333333333</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="G30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G31" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5">
+        <v>45873</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.34027777777777779</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.54305555555555551</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C34" s="1">
+        <v>0.55972222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Internship Vounne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE73D4-F7D1-4035-BEFA-1BB375B72002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD9FB4-5364-4956-9D82-0F2DAFCC2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1020" windowWidth="14400" windowHeight="8750" xr2:uid="{B02A15E2-150F-4AE7-86FB-62DED4269725}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -151,6 +151,15 @@
   </si>
   <si>
     <t>4 hours 38 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 52 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 6 minutes</t>
+  </si>
+  <si>
+    <t>8 hours 58 minutes</t>
   </si>
 </sst>
 </file>
@@ -194,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -203,6 +212,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC979-6E93-4738-ACD0-B862A1B21694}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -845,7 +855,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <v>45873</v>
       </c>
@@ -855,10 +865,32 @@
       <c r="D33" s="1">
         <v>0.54305555555555551</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G33" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="C34" s="1">
         <v>0.55972222222222223</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.73055555555555551</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="5">
+        <v>45874</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.33819444444444446</v>
       </c>
     </row>
   </sheetData>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Internship Vounne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBD9FB4-5364-4956-9D82-0F2DAFCC2933}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45770779-5759-49F7-8C32-F894466CF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1020" windowWidth="14400" windowHeight="8750" xr2:uid="{B02A15E2-150F-4AE7-86FB-62DED4269725}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>Date</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>8 hours 58 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 58 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 10 minutes</t>
+  </si>
+  <si>
+    <t>9 hours 8 minutes</t>
   </si>
 </sst>
 </file>
@@ -203,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -212,7 +221,6 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC979-6E93-4738-ACD0-B862A1B21694}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -865,7 +873,7 @@
       <c r="D33" s="1">
         <v>0.54305555555555551</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" t="s">
         <v>39</v>
       </c>
     </row>
@@ -891,6 +899,36 @@
       </c>
       <c r="C36" s="1">
         <v>0.33819444444444446</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="G36" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C37" s="1">
+        <v>0.5625</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G37" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G38" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="5">
+        <v>45875</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0.33680555555555558</v>
       </c>
     </row>
   </sheetData>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Internship Vounne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45770779-5759-49F7-8C32-F894466CF1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD931E00-2579-4FE0-B244-F5743CF46971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1020" windowWidth="14400" windowHeight="8750" xr2:uid="{B02A15E2-150F-4AE7-86FB-62DED4269725}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t>Date</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>9 hours 8 minutes</t>
+  </si>
+  <si>
+    <t>9 hours 4 minutes</t>
   </si>
 </sst>
 </file>
@@ -535,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC979-6E93-4738-ACD0-B862A1B21694}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -930,6 +933,36 @@
       <c r="C39" s="1">
         <v>0.33680555555555558</v>
       </c>
+      <c r="D39" s="1">
+        <v>0.54374999999999996</v>
+      </c>
+      <c r="G39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C40" s="1">
+        <v>0.55972222222222223</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0.73055555555555551</v>
+      </c>
+      <c r="G40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G41" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="5">
+        <v>45876</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0.33541666666666664</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Internship Vounne\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD931E00-2579-4FE0-B244-F5743CF46971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEA40BE-9BDC-40F4-A0DF-1B608B7939A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1020" windowWidth="14400" windowHeight="8750" xr2:uid="{B02A15E2-150F-4AE7-86FB-62DED4269725}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>9 hours 4 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 14 minutes</t>
+  </si>
+  <si>
+    <t>9 hours 13 minutes</t>
   </si>
 </sst>
 </file>
@@ -538,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4AFC979-6E93-4738-ACD0-B862A1B21694}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -963,6 +969,36 @@
       <c r="C42" s="1">
         <v>0.33541666666666664</v>
       </c>
+      <c r="D42" s="1">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="G42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C43" s="1">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0.73402777777777772</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="G44" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="5">
+        <v>45877</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0.33819444444444446</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -181,13 +181,46 @@
   </si>
   <si>
     <t>8 hours 48 minutes</t>
+  </si>
+  <si>
+    <t>9 hours 3 minutes</t>
+  </si>
+  <si>
+    <r>
+      <t>4 hours 3 minutes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5 hours</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -197,6 +230,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -224,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -233,6 +273,7 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,7 +580,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -547,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1033,6 +1074,36 @@
       <c r="C48" s="1">
         <v>0.33680555555555558</v>
       </c>
+      <c r="D48" s="1">
+        <v>0.54513888888888884</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="C49" s="1">
+        <v>0.56251157407407404</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.73125000000000007</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="G50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="5">
+        <v>45881</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.33888888888888885</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -215,12 +215,18 @@
       <t>.</t>
     </r>
   </si>
+  <si>
+    <t>4 hours 56 minutes</t>
+  </si>
+  <si>
+    <t>4 hours 17 minutes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,13 +236,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -580,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1104,6 +1103,28 @@
       <c r="C51" s="3">
         <v>0.33888888888888885</v>
       </c>
+      <c r="D51" s="1">
+        <v>0.5444444444444444</v>
+      </c>
+      <c r="G51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="C52" s="1">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.73611111111111116</v>
+      </c>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="G53" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/daily.xlsx
+++ b/daily.xlsx
@@ -579,7 +579,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -587,10 +587,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+      <selection activeCell="L57" sqref="L57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1126,6 +1126,14 @@
         <v>47</v>
       </c>
     </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="5">
+        <v>45883</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.35902777777777778</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
